--- a/statistics/export/templates/school_class_contest_related_template.xlsx
+++ b/statistics/export/templates/school_class_contest_related_template.xlsx
@@ -26,7 +26,7 @@
     <t>总有效考试数</t>
   </si>
   <si>
-    <t>总有效测评书</t>
+    <t>总有效测评数</t>
   </si>
   <si>
     <t>有效测评/月</t>
@@ -674,10 +674,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1251,10 +1251,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
